--- a/table/Table_B1.xlsx
+++ b/table/Table_B1.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
-    <t>Outcomes: total</t>
+    <t>Panel A: Total Visits/Admissions</t>
   </si>
   <si>
     <t/>
@@ -39,7 +39,7 @@
     <t>Cluster at YearWeek Level</t>
   </si>
   <si>
-    <t>Outcomes: infection</t>
+    <t>Panel B: Infectious Diseases</t>
   </si>
   <si>
     <t>covid19</t>
@@ -54,7 +54,7 @@
     <t>Cluster at YearWeek Level</t>
   </si>
   <si>
-    <t>Outcomes: non_infection</t>
+    <t>Panel C: Non-infectious diseases</t>
   </si>
   <si>
     <t>covid19</t>
@@ -87,7 +87,7 @@
     <t/>
   </si>
   <si>
-    <t>-0.15***</t>
+    <t>-0.14***</t>
   </si>
   <si>
     <t>(0.01)</t>
@@ -102,193 +102,433 @@
     <t/>
   </si>
   <si>
+    <t>-0.44***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.04}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.10***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>opd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.14***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>-0.45***</t>
   </si>
   <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.04}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.09***</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>opd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.14***</t>
+  </si>
+  <si>
     <t>(0.02)</t>
   </si>
   <si>
     <t>[0.01]</t>
   </si>
   <si>
-    <t>{0.03}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.11***</t>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.45***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.04}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.10***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>opd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.14***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.45***</t>
+  </si>
+  <si>
+    <t>(0.03)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.04}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.10***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>[0.01]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>ipd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.05***</t>
   </si>
   <si>
     <t>(0.01)</t>
   </si>
   <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>opd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.14***</t>
+    <t>[0.03]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.43***</t>
   </si>
   <si>
     <t>(0.01)</t>
   </si>
   <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.46***</t>
+    <t>[0.04]</t>
+  </si>
+  <si>
+    <t>{0.04}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.02***</t>
+  </si>
+  <si>
+    <t>(0.00)</t>
+  </si>
+  <si>
+    <t>[0.04]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>ipd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.05***</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>[0.04]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.47***</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>[0.06]</t>
+  </si>
+  <si>
+    <t>{0.05}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>[0.04]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>ipd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.05</t>
   </si>
   <si>
     <t>(0.03)</t>
   </si>
   <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.03}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.10***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>opd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.15***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.46***</t>
+    <t>[0.03]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>[0.04]</t>
+  </si>
+  <si>
+    <t>{0.04}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.02</t>
   </si>
   <si>
     <t>(0.03)</t>
   </si>
   <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.03}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.11***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>opd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.15***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.47***</t>
+    <t>[0.03]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(8)</t>
+  </si>
+  <si>
+    <t>ipd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.04</t>
   </si>
   <si>
     <t>(0.03)</t>
   </si>
   <si>
-    <t>[0.01]</t>
+    <t>[0.03]</t>
+  </si>
+  <si>
+    <t>{0.02}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>[0.04]</t>
   </si>
   <si>
     <t>{0.04}</t>
@@ -297,247 +537,7 @@
     <t/>
   </si>
   <si>
-    <t>-0.11***</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>[0.01]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>ipd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.05***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>[0.03]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>[0.04]</t>
-  </si>
-  <si>
-    <t>{0.04}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.02***</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>[0.04]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
-    <t>ipd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.05**</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>[0.04]</t>
-  </si>
-  <si>
-    <t>{0.03}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.48***</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>[0.06]</t>
-  </si>
-  <si>
-    <t>{0.05}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>[0.05]</t>
-  </si>
-  <si>
-    <t>{0.03}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(7)</t>
-  </si>
-  <si>
-    <t>ipd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>[0.03]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.43***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>[0.05]</t>
-  </si>
-  <si>
-    <t>{0.04}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>[0.03]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(8)</t>
-  </si>
-  <si>
-    <t>ipd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>[0.03]</t>
-  </si>
-  <si>
-    <t>{0.02}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.43***</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
-  </si>
-  <si>
-    <t>[0.04]</t>
-  </si>
-  <si>
-    <t>{0.04}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.02</t>
+    <t>-0.01</t>
   </si>
   <si>
     <t>(0.04)</t>
